--- a/seabird_data/raw_data/seabird_transects_to_use.xlsx
+++ b/seabird_data/raw_data/seabird_transects_to_use.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Benkwitt/Documents/GitHub/TARP_motu_comparison/seabird_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Benkwitt/Documents/GitHub/TARP_motu_comparison/seabird_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10E423-1B70-4742-9325-6B8206C3DF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B90FB6-0AD2-B94D-9C33-E8695200A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29120" yWindow="-2200" windowWidth="31100" windowHeight="15740" xr2:uid="{A7104C0C-CF60-2F41-B53F-E73003247C94}"/>
+    <workbookView xWindow="-35980" yWindow="-2840" windowWidth="35600" windowHeight="16220" xr2:uid="{A7104C0C-CF60-2F41-B53F-E73003247C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Motu</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Side</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>Aie</t>
   </si>
   <si>
@@ -189,6 +186,45 @@
   </si>
   <si>
     <t>Transect name (alternative name) - Closest 100 m</t>
+  </si>
+  <si>
+    <t>notes_100-200m_transects</t>
+  </si>
+  <si>
+    <t>notes_side_of_motu</t>
+  </si>
+  <si>
+    <t>Transect Sequence - Side of Motu</t>
+  </si>
+  <si>
+    <t>0945-0946-0947-0948</t>
+  </si>
+  <si>
+    <t>0948-0949-0950-0945</t>
+  </si>
+  <si>
+    <t>1143-1144-1145-1146-1147-1148-1149-1150-1151-1152</t>
+  </si>
+  <si>
+    <t>0837-0838-0839-1137-1138-1139-1140-1141-1142-1143</t>
+  </si>
+  <si>
+    <t>obvious split to e/w corners of motu, just added 1 extra transect to 200 m</t>
+  </si>
+  <si>
+    <t>obvious split to n/s corners of motu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only included until eastern most corner (so excluded northern stretch which is cut-off from transects). Obvious southern corner. </t>
+  </si>
+  <si>
+    <t>only included until northwestern corner (so excluded norther stretch which is cut-off from transects). Obvious southern corner</t>
+  </si>
+  <si>
+    <t>0631 - 0632 - 0633 - 0634 - 0635 - 0636 - 0637 - 0638 - 0644 - 0645 - 0646 - 0647 - 0648 - 0686 - 0687 - 0688 - 0689 - 0690 - 0691  - 0692</t>
+  </si>
+  <si>
+    <t>0692 - 0693 - 0694 - 0695 - 0696 - 0697 - 0698 - 0699 - 0700 - 0701 - 0702 - 0606</t>
   </si>
 </sst>
 </file>
@@ -561,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BC5F6D-8E4C-0A4B-BAC8-ED71E0504A6B}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,12 +610,14 @@
     <col min="4" max="4" width="19.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="49.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="49.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,199 +625,241 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="4" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
+      <c r="K7" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/seabird_data/raw_data/seabird_transects_to_use.xlsx
+++ b/seabird_data/raw_data/seabird_transects_to_use.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Benkwitt/Documents/GitHub/TARP_motu_comparison/seabird_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B90FB6-0AD2-B94D-9C33-E8695200A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D74B3-7A3B-C54F-806E-E118DC005466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35980" yWindow="-2840" windowWidth="35600" windowHeight="16220" xr2:uid="{A7104C0C-CF60-2F41-B53F-E73003247C94}"/>
+    <workbookView xWindow="-36660" yWindow="920" windowWidth="35600" windowHeight="16220" activeTab="1" xr2:uid="{A7104C0C-CF60-2F41-B53F-E73003247C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gps coordinates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
   <si>
     <t>Motu</t>
   </si>
@@ -225,13 +226,133 @@
   </si>
   <si>
     <t>0692 - 0693 - 0694 - 0695 - 0696 - 0697 - 0698 - 0699 - 0700 - 0701 - 0702 - 0606</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Used for?</t>
+  </si>
+  <si>
+    <t>closest 100 m</t>
+  </si>
+  <si>
+    <t>0692</t>
+  </si>
+  <si>
+    <t>0693</t>
+  </si>
+  <si>
+    <t>0697</t>
+  </si>
+  <si>
+    <t>0698</t>
+  </si>
+  <si>
+    <t>0699</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>additional for side of motu</t>
+  </si>
+  <si>
+    <t>additional for 200 m</t>
+  </si>
+  <si>
+    <t>0631</t>
+  </si>
+  <si>
+    <t>0632</t>
+  </si>
+  <si>
+    <t>0633</t>
+  </si>
+  <si>
+    <t>0634</t>
+  </si>
+  <si>
+    <t>0635</t>
+  </si>
+  <si>
+    <t>0636</t>
+  </si>
+  <si>
+    <t>0637</t>
+  </si>
+  <si>
+    <t>0638</t>
+  </si>
+  <si>
+    <t>0644</t>
+  </si>
+  <si>
+    <t>0645</t>
+  </si>
+  <si>
+    <t>0646</t>
+  </si>
+  <si>
+    <t>0647</t>
+  </si>
+  <si>
+    <t>0688</t>
+  </si>
+  <si>
+    <t>0689</t>
+  </si>
+  <si>
+    <t>0690</t>
+  </si>
+  <si>
+    <t>0691</t>
+  </si>
+  <si>
+    <t>0837</t>
+  </si>
+  <si>
+    <t>0838</t>
+  </si>
+  <si>
+    <t>0839</t>
+  </si>
+  <si>
+    <t>additional for WHOLE motu</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>0624</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>0607</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +363,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -268,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,6 +412,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -447,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BC5F6D-8E4C-0A4B-BAC8-ED71E0504A6B}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,4 +1000,1222 @@
     <ignoredError sqref="C2:F7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C4DE5D-0F8F-2C40-990B-58474C479395}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>-17.008796045556664</v>
+      </c>
+      <c r="C2">
+        <v>-149.53574267216027</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>-17.009191755205393</v>
+      </c>
+      <c r="C3">
+        <v>-149.53487078659236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>-17.008176371455193</v>
+      </c>
+      <c r="C4">
+        <v>-149.5364095363766</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>-17.007728442549706</v>
+      </c>
+      <c r="C5">
+        <v>-149.53540278598666</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>-17.008365299552679</v>
+      </c>
+      <c r="C6">
+        <v>-149.53474002890289</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>-17.009100643917918</v>
+      </c>
+      <c r="C7">
+        <v>-149.53424222767353</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>-17.033197022974491</v>
+      </c>
+      <c r="C8">
+        <v>-149.5566569454968</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>-17.03353900462389</v>
+      </c>
+      <c r="C9">
+        <v>-149.55751793459058</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>-17.033673953264952</v>
+      </c>
+      <c r="C10">
+        <v>-149.55936388112605</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>-17.033759951591492</v>
+      </c>
+      <c r="C11">
+        <v>-149.55842988565564</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>-17.032734006643295</v>
+      </c>
+      <c r="C12">
+        <v>-149.55585395917296</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>-17.031986005604267</v>
+      </c>
+      <c r="C13">
+        <v>-149.55534090287983</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>-17.031160974875093</v>
+      </c>
+      <c r="C14">
+        <v>-149.55495994538069</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>-17.030392019078135</v>
+      </c>
+      <c r="C15">
+        <v>-149.55446692183614</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>-17.029661033302546</v>
+      </c>
+      <c r="C16">
+        <v>-149.5539229363203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>-17.028992995619774</v>
+      </c>
+      <c r="C17">
+        <v>-149.55329890362918</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>-17.028458984568715</v>
+      </c>
+      <c r="C18">
+        <v>-149.5525589492172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>-17.02779907733202</v>
+      </c>
+      <c r="C19">
+        <v>-149.56055838614702</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>-17.028693007305264</v>
+      </c>
+      <c r="C20">
+        <v>-149.56048688851297</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>-17.017682371661067</v>
+      </c>
+      <c r="C21">
+        <v>-149.5629493240267</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>-17.018564231693745</v>
+      </c>
+      <c r="C22">
+        <v>-149.5631189737469</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>-17.019436787813902</v>
+      </c>
+      <c r="C23">
+        <v>-149.56290448084474</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>-17.020220747217536</v>
+      </c>
+      <c r="C24">
+        <v>-149.56244322471321</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>-17.021051058545709</v>
+      </c>
+      <c r="C25">
+        <v>-149.56208297051489</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>-17.021804759278893</v>
+      </c>
+      <c r="C26">
+        <v>-149.56156195141375</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>-17.022622246295214</v>
+      </c>
+      <c r="C27">
+        <v>-149.56117361783981</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>-17.023437554016709</v>
+      </c>
+      <c r="C28">
+        <v>-149.56079157069325</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <v>-17.024287395179272</v>
+      </c>
+      <c r="C29">
+        <v>-149.56046492792666</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30">
+        <v>-17.025162130594254</v>
+      </c>
+      <c r="C30">
+        <v>-149.56024029292166</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31">
+        <v>-17.026057736948133</v>
+      </c>
+      <c r="C31">
+        <v>-149.56018455326557</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32">
+        <v>-17.026923419907689</v>
+      </c>
+      <c r="C32">
+        <v>-149.56038555130363</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>-17.029589954763651</v>
+      </c>
+      <c r="C33">
+        <v>-149.56050792708993</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>-17.030484974384308</v>
+      </c>
+      <c r="C34">
+        <v>-149.5605509262532</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>-17.03139097429812</v>
+      </c>
+      <c r="C35">
+        <v>-149.56053089350462</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>-17.032288005575538</v>
+      </c>
+      <c r="C36">
+        <v>-149.5604679454118</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37">
+        <v>-17.033127034083009</v>
+      </c>
+      <c r="C37">
+        <v>-149.56011892296374</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>-17.016921546310186</v>
+      </c>
+      <c r="C38">
+        <v>-149.56125249154866</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>-17.017330247908831</v>
+      </c>
+      <c r="C39">
+        <v>-149.56208841875196</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40">
+        <v>-17.027880549430847</v>
+      </c>
+      <c r="C40">
+        <v>-149.55227614380419</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <v>-17.02704755589366</v>
+      </c>
+      <c r="C41">
+        <v>-149.55263597890735</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>1149</v>
+      </c>
+      <c r="B42">
+        <v>-17.045838022604585</v>
+      </c>
+      <c r="C42">
+        <v>-149.54412088729441</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>1148</v>
+      </c>
+      <c r="B43">
+        <v>-17.046733964234591</v>
+      </c>
+      <c r="C43">
+        <v>-149.54411191865802</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>1143</v>
+      </c>
+      <c r="B44">
+        <v>-17.049605017527938</v>
+      </c>
+      <c r="C44">
+        <v>-149.54665389843285</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>1144</v>
+      </c>
+      <c r="B45">
+        <v>-17.049504015594721</v>
+      </c>
+      <c r="C45">
+        <v>-149.54570992849767</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>1145</v>
+      </c>
+      <c r="B46">
+        <v>-17.049146024510264</v>
+      </c>
+      <c r="C46">
+        <v>-149.54484592191875</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>1146</v>
+      </c>
+      <c r="B47">
+        <v>-17.048512017354369</v>
+      </c>
+      <c r="C47">
+        <v>-149.54417595639825</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>1147</v>
+      </c>
+      <c r="B48">
+        <v>-17.047625966370106</v>
+      </c>
+      <c r="C48">
+        <v>-149.54405492171645</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>1150</v>
+      </c>
+      <c r="B49">
+        <v>-17.044989019632339</v>
+      </c>
+      <c r="C49">
+        <v>-149.54443294554949</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>1151</v>
+      </c>
+      <c r="B50">
+        <v>-17.044188966974616</v>
+      </c>
+      <c r="C50">
+        <v>-149.54485589638352</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>1139</v>
+      </c>
+      <c r="B51">
+        <v>-17.046534977853298</v>
+      </c>
+      <c r="C51">
+        <v>-149.54752888530493</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>1138</v>
+      </c>
+      <c r="B52">
+        <v>-17.045639958232641</v>
+      </c>
+      <c r="C52">
+        <v>-149.54761890694499</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53">
+        <v>-17.042618952691555</v>
+      </c>
+      <c r="C53">
+        <v>-149.54578192904592</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <v>-17.043409030884504</v>
+      </c>
+      <c r="C54">
+        <v>-149.54622692428529</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55">
+        <v>-17.044025016948581</v>
+      </c>
+      <c r="C55">
+        <v>-149.54691893421113</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>1137</v>
+      </c>
+      <c r="B56">
+        <v>-17.044746028259397</v>
+      </c>
+      <c r="C56">
+        <v>-149.54749192111194</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>1140</v>
+      </c>
+      <c r="B57">
+        <v>-17.047410970553756</v>
+      </c>
+      <c r="C57">
+        <v>-149.54771789722145</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>1141</v>
+      </c>
+      <c r="B58">
+        <v>-17.048295009881258</v>
+      </c>
+      <c r="C58">
+        <v>-149.54788193106651</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>1142</v>
+      </c>
+      <c r="B59">
+        <v>-17.049112999811769</v>
+      </c>
+      <c r="C59">
+        <v>-149.54749594442546</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>1152</v>
+      </c>
+      <c r="B60">
+        <v>-17.043353961780667</v>
+      </c>
+      <c r="C60">
+        <v>-149.54521589912474</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>